--- a/iDVC-FreeDIC申请表格.xlsx
+++ b/iDVC-FreeDIC申请表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\DIC-DVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E618381-F82D-443C-BB5B-1938E7B3D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B087D5D-CCD4-4987-9DEA-C2BB47EA7D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,33 @@
   </si>
   <si>
     <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>邮箱（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请使用机构邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +167,14 @@
       <color rgb="FF666666"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -518,7 +549,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -535,18 +566,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -555,48 +586,48 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="I3" s="8"/>
     </row>

--- a/iDVC-FreeDIC申请表格.xlsx
+++ b/iDVC-FreeDIC申请表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\DIC-DVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B087D5D-CCD4-4987-9DEA-C2BB47EA7D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3834EF5-5377-4FED-B2F4-3B256659B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-18617" windowWidth="33120" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>学校或单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填写黑色字体部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安装电脑的硬件系统参数，可百度查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,14 @@
   </si>
   <si>
     <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以何种方式知道iDVC/FreeDIC?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文，网页检索、推荐、其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +110,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -169,6 +174,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -191,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,52 +206,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -253,18 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -558,81 +526,85 @@
     <col min="3" max="3" width="19.2109375" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.78515625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="20.35546875" customWidth="1"/>
-    <col min="8" max="8" width="23.0703125" customWidth="1"/>
-    <col min="9" max="9" width="42.35546875" customWidth="1"/>
+    <col min="6" max="6" width="26.0703125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="20.35546875" customWidth="1"/>
+    <col min="9" max="9" width="23.0703125" customWidth="1"/>
+    <col min="10" max="10" width="42.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -640,6 +612,116 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
